--- a/確認ファイル.xlsx
+++ b/確認ファイル.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i.akasaka\git4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9575AAB-4E3D-4A95-B089-9DD925FE7C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E77927-DF02-45D1-B7F6-D92514EFEA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{67ACD3E0-F4C8-4A82-B3FA-F012BA474597}"/>
   </bookViews>
@@ -36,9 +36,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>あ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｆ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -423,17 +427,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD09D6CA-30C3-44BF-9025-2AEA3E9A5F94}">
-  <dimension ref="C4"/>
+  <dimension ref="C4:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="H10" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
